--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
   <si>
     <t>##var</t>
   </si>
@@ -151,6 +151,9 @@
     <t>impacter</t>
   </si>
   <si>
+    <t>TargetCfg?</t>
+  </si>
+  <si>
     <t>buff作用目标，如果为null默认影响附着对象</t>
   </si>
   <si>
@@ -274,12 +277,15 @@
     <t>bulletCfg</t>
   </si>
   <si>
+    <t>BulletCfg?</t>
+  </si>
+  <si>
+    <t>弹道配置，无弹道就为null</t>
+  </si>
+  <si>
     <t>BulletCfg</t>
   </si>
   <si>
-    <t>弹道配置，无弹道就为null</t>
-  </si>
-  <si>
     <t>bulletType</t>
   </si>
   <si>
@@ -314,6 +320,189 @@
   </si>
   <si>
     <t>bulletDuration</t>
+  </si>
+  <si>
+    <t>UnitInfoCfg</t>
+  </si>
+  <si>
+    <t>unitId</t>
+  </si>
+  <si>
+    <t>unitName</t>
+  </si>
+  <si>
+    <t>单位角色名</t>
+  </si>
+  <si>
+    <t>resName</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>colliderType</t>
+  </si>
+  <si>
+    <t>UnitTypeEnum</t>
+  </si>
+  <si>
+    <t>碰撞体类型</t>
+  </si>
+  <si>
+    <t>pasvBuff</t>
+  </si>
+  <si>
+    <t>被动技能buff</t>
+  </si>
+  <si>
+    <t>skillArr</t>
+  </si>
+  <si>
+    <t>DamageBuffCfg_DynamicGroup</t>
+  </si>
+  <si>
+    <t>每次Tick伤害</t>
+  </si>
+  <si>
+    <t>DamageBuffCfg_StaticGroup</t>
+  </si>
+  <si>
+    <t>ArthurMarkBuffCfg</t>
+  </si>
+  <si>
+    <t>damagePct</t>
+  </si>
+  <si>
+    <t>CommonModifySkillBuffCfg</t>
+  </si>
+  <si>
+    <t>originalID</t>
+  </si>
+  <si>
+    <t>replaceID</t>
+  </si>
+  <si>
+    <t>ExecuteDamageBuffCfg</t>
+  </si>
+  <si>
+    <t>百分比生命伤害</t>
+  </si>
+  <si>
+    <t>HPCureBuffCfg</t>
+  </si>
+  <si>
+    <t>cureHPpct</t>
+  </si>
+  <si>
+    <t>治疗Hp百分比</t>
+  </si>
+  <si>
+    <t>HouyiMixedMultiScatterBuffCfg</t>
+  </si>
+  <si>
+    <t>scatterCount</t>
+  </si>
+  <si>
+    <t>散射个数</t>
+  </si>
+  <si>
+    <t>散射目标查找规则</t>
+  </si>
+  <si>
+    <t>散射子弹伤害百分比</t>
+  </si>
+  <si>
+    <t>arrowCount</t>
+  </si>
+  <si>
+    <t>arrowDelay</t>
+  </si>
+  <si>
+    <t>posOffset</t>
+  </si>
+  <si>
+    <t>HouyiMultipleArrowBuffCfg</t>
+  </si>
+  <si>
+    <t>每只箭的延迟</t>
+  </si>
+  <si>
+    <t>箭之间的上下偏移值</t>
+  </si>
+  <si>
+    <t>HouyiMultipleSkillModifyBuffCfg</t>
+  </si>
+  <si>
+    <t>powerID</t>
+  </si>
+  <si>
+    <t>superPowerID</t>
+  </si>
+  <si>
+    <t>triggerOverCount</t>
+  </si>
+  <si>
+    <t>resetTime</t>
+  </si>
+  <si>
+    <t>HouyiPasvAttackSpeedBuffCfg</t>
+  </si>
+  <si>
+    <t>overCount</t>
+  </si>
+  <si>
+    <t>叠加层数</t>
+  </si>
+  <si>
+    <t>speedAddtion</t>
+  </si>
+  <si>
+    <t>加成百分比</t>
+  </si>
+  <si>
+    <t>重置周期</t>
+  </si>
+  <si>
+    <t>HouyiScatterArrowBuffCfg</t>
+  </si>
+  <si>
+    <t>HouyiScatterSkillModifyBuffCfg</t>
+  </si>
+  <si>
+    <t>MoveSpeedBuffCfg</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>速度改变量，百分比</t>
+  </si>
+  <si>
+    <t>StunBuffCfg_DynamicTime</t>
+  </si>
+  <si>
+    <t>minStunTime</t>
+  </si>
+  <si>
+    <t>maxStunTime</t>
+  </si>
+  <si>
+    <t>TargetFlashMoveBuffCfg</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>目标偏移量</t>
   </si>
 </sst>
 </file>
@@ -321,10 +510,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -349,6 +538,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -358,10 +569,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,16 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,32 +614,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,9 +638,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,29 +655,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,31 +677,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,13 +803,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,139 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,15 +894,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +937,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -762,15 +957,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +978,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -805,162 +1000,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="31" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1285,146 +1483,147 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.5083333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" t="s">
         <v>25</v>
       </c>
@@ -1501,102 +1700,102 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="5"/>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="5"/>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="7:8">
       <c r="G20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
         <v>35</v>
@@ -1604,10 +1803,10 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
         <v>33</v>
@@ -1615,172 +1814,172 @@
     </row>
     <row r="22" spans="7:10">
       <c r="G22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
         <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="7:10">
       <c r="G23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>35</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="7:10">
       <c r="G24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="7:10">
       <c r="G25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="7:10">
       <c r="G26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
         <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="7:10">
       <c r="G27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
         <v>33</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="7:10">
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
         <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="7:10">
       <c r="G29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
         <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="7:10">
       <c r="G30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
         <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="7:10">
       <c r="G31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="7:10">
       <c r="G32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="7:10">
       <c r="G33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="7:10">
       <c r="G34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="7:10">
       <c r="G35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="7:8">
       <c r="G37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s">
         <v>35</v>
@@ -1788,7 +1987,7 @@
     </row>
     <row r="38" spans="7:8">
       <c r="G38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s">
         <v>35</v>
@@ -1796,7 +1995,7 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s">
         <v>27</v>
@@ -1804,7 +2003,7 @@
     </row>
     <row r="40" spans="7:8">
       <c r="G40" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s">
         <v>27</v>
@@ -1812,7 +2011,7 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H41" t="s">
         <v>27</v>
@@ -1820,18 +2019,18 @@
     </row>
     <row r="42" spans="7:10">
       <c r="G42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H42" t="s">
         <v>27</v>
       </c>
       <c r="J42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="7:8">
       <c r="G43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
         <v>33</v>
@@ -1839,10 +2038,10 @@
     </row>
     <row r="44" spans="7:8">
       <c r="G44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="7:8">
@@ -1850,15 +2049,515 @@
         <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="7:8">
       <c r="G46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H46" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10">
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8">
+      <c r="G50" t="s">
+        <v>108</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8">
+      <c r="G51" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8">
+      <c r="G52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
+      <c r="G53" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="7:8">
+      <c r="G55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:10">
+      <c r="B56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="7:8">
+      <c r="G60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>131</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
+      <c r="G65" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
+      <c r="G71" t="s">
+        <v>137</v>
+      </c>
+      <c r="H71" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>123</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="G75" t="s">
+        <v>144</v>
+      </c>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8">
+      <c r="G76" t="s">
+        <v>145</v>
+      </c>
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78" t="s">
+        <v>149</v>
+      </c>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79" t="s">
+        <v>145</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>131</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82" t="s">
+        <v>121</v>
+      </c>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
+        <v>123</v>
+      </c>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="G85" t="s">
+        <v>143</v>
+      </c>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>158</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
+      <c r="G88" t="s">
+        <v>159</v>
+      </c>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>161</v>
+      </c>
+      <c r="H89" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
@@ -511,9 +511,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -538,8 +538,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,25 +606,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,14 +645,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -607,42 +653,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,21 +667,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -689,187 +689,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +899,65 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -909,15 +968,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,58 +990,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,148 +1000,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,8 +1485,8 @@
   <sheetPr/>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,10 +510,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -538,9 +538,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,16 +606,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,28 +623,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,38 +647,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,55 +689,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,127 +845,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,6 +894,56 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,49 +975,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,63 +995,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1051,97 +1051,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,8 +1485,8 @@
   <sheetPr/>
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
   <si>
     <t>##var</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>skillArr</t>
+  </si>
+  <si>
+    <t>(array#sep=,),int#ref=Datas.TbSkillCfg</t>
+  </si>
+  <si>
+    <t>NormalBuffCfg</t>
   </si>
   <si>
     <t>DamageBuffCfg_DynamicGroup</t>
@@ -510,10 +516,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -545,6 +551,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -568,8 +590,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,76 +668,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -689,187 +695,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,6 +904,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -918,6 +948,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,39 +988,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1000,22 +1006,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,124 +1030,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1483,10 +1489,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2144,24 +2150,15 @@
         <v>116</v>
       </c>
       <c r="H55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="2:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="2:3">
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57" spans="2:10">
@@ -2178,21 +2175,24 @@
         <v>33</v>
       </c>
       <c r="J57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
       <c r="B58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
         <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
         <v>33</v>
+      </c>
+      <c r="J58" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -2209,29 +2209,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="7:8">
+    <row r="60" spans="2:8">
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>31</v>
+      </c>
       <c r="G60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H60" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" t="s">
-        <v>31</v>
-      </c>
+    <row r="61" spans="7:8">
       <c r="G61" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H61" t="s">
         <v>33</v>
-      </c>
-      <c r="J61" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:10">
@@ -2242,65 +2239,74 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
+        <v>123</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="J62" t="s">
         <v>128</v>
-      </c>
-      <c r="H62" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
       </c>
       <c r="G63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
         <v>131</v>
       </c>
-      <c r="H63" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" t="s">
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="64" spans="7:10">
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="7:10">
       <c r="G65" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="7:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
       <c r="G66" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H66" t="s">
         <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="7:8">
       <c r="G67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H67" t="s">
         <v>33</v>
@@ -2308,65 +2314,65 @@
     </row>
     <row r="68" spans="7:8">
       <c r="G68" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69" t="s">
+        <v>139</v>
+      </c>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
         <v>137</v>
       </c>
-      <c r="H68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10">
-      <c r="G70" t="s">
-        <v>136</v>
-      </c>
       <c r="H70" t="s">
         <v>33</v>
-      </c>
-      <c r="J70" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="7:10">
       <c r="G71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
+      <c r="G72" t="s">
+        <v>139</v>
+      </c>
+      <c r="H72" t="s">
         <v>27</v>
       </c>
-      <c r="J71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="J72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
         <v>31</v>
       </c>
-      <c r="G72" t="s">
-        <v>123</v>
-      </c>
-      <c r="H72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="7:8">
       <c r="G73" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H73" t="s">
         <v>33</v>
@@ -2374,7 +2380,7 @@
     </row>
     <row r="74" spans="7:8">
       <c r="G74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H74" t="s">
         <v>33</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="75" spans="7:8">
       <c r="G75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H75" t="s">
         <v>33</v>
@@ -2390,30 +2396,27 @@
     </row>
     <row r="76" spans="7:8">
       <c r="G76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H76" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
-      <c r="B77" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" t="s">
-        <v>31</v>
-      </c>
+    <row r="77" spans="7:8">
       <c r="G77" t="s">
         <v>147</v>
       </c>
       <c r="H77" t="s">
         <v>33</v>
       </c>
-      <c r="J77" t="s">
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="7:10">
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
       <c r="G78" t="s">
         <v>149</v>
       </c>
@@ -2426,71 +2429,74 @@
     </row>
     <row r="79" spans="7:10">
       <c r="G79" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H79" t="s">
         <v>33</v>
       </c>
       <c r="J79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" t="s">
         <v>152</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80" t="s">
+        <v>147</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" t="s">
         <v>31</v>
       </c>
-      <c r="G80" t="s">
-        <v>131</v>
-      </c>
-      <c r="H80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J80" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="7:10">
       <c r="G81" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="7:10">
       <c r="G82" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" t="s">
-        <v>31</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10">
       <c r="G83" t="s">
         <v>123</v>
       </c>
       <c r="H83" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="7:8">
+      <c r="J83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" t="s">
+        <v>31</v>
+      </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H84" t="s">
         <v>33</v>
@@ -2498,66 +2504,74 @@
     </row>
     <row r="85" spans="7:8">
       <c r="G85" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H85" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
-      <c r="B86" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" t="s">
-        <v>31</v>
-      </c>
+    <row r="86" spans="7:8">
       <c r="G86" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H86" t="s">
         <v>33</v>
       </c>
-      <c r="J86" t="s">
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" t="s">
-        <v>157</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
       </c>
       <c r="G87" t="s">
+        <v>157</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" t="s">
         <v>158</v>
       </c>
-      <c r="H87" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="7:8">
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
       <c r="G88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="2:10">
-      <c r="B89" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" t="s">
-        <v>31</v>
-      </c>
+    <row r="89" spans="7:8">
       <c r="G89" t="s">
         <v>161</v>
       </c>
       <c r="H89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>163</v>
+      </c>
+      <c r="H90" t="s">
         <v>27</v>
       </c>
-      <c r="J89" t="s">
-        <v>162</v>
+      <c r="J90" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="186">
   <si>
     <t>##var</t>
   </si>
@@ -181,6 +181,12 @@
     <t>hitTickAudio</t>
   </si>
   <si>
+    <t>effectDestoryExtend</t>
+  </si>
+  <si>
+    <t>buffEffect的销毁时长。如果为0则0.1f销毁，否则按照字段提供时间销毁。</t>
+  </si>
+  <si>
     <t>SkillCfg</t>
   </si>
   <si>
@@ -397,6 +403,18 @@
     <t>replaceID</t>
   </si>
   <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>执行回数，-1就是永久生效</t>
+  </si>
+  <si>
+    <t>replaceIconId</t>
+  </si>
+  <si>
+    <t>替换刷新本地技能位置（0普攻，1-3技能）</t>
+  </si>
+  <si>
     <t>ExecuteDamageBuffCfg</t>
   </si>
   <si>
@@ -509,6 +527,51 @@
   </si>
   <si>
     <t>目标偏移量</t>
+  </si>
+  <si>
+    <t>JinxRocketMixedBuffCfg_DynamicGroup</t>
+  </si>
+  <si>
+    <t>minTime</t>
+  </si>
+  <si>
+    <t>maxTime</t>
+  </si>
+  <si>
+    <t>minDamage</t>
+  </si>
+  <si>
+    <t>maxDamage</t>
+  </si>
+  <si>
+    <t>perDamagedHit</t>
+  </si>
+  <si>
+    <t>造成敌人已损失血量百分比伤害</t>
+  </si>
+  <si>
+    <t>perSplash</t>
+  </si>
+  <si>
+    <t>溅射百分比</t>
+  </si>
+  <si>
+    <t>NSSpeedBuffCfg</t>
+  </si>
+  <si>
+    <t>moveSpeedPer</t>
+  </si>
+  <si>
+    <t>移动速度改变百分比</t>
+  </si>
+  <si>
+    <t>atkSpeedPer</t>
+  </si>
+  <si>
+    <t>攻击速度改变百分比</t>
+  </si>
+  <si>
+    <t>速度改变持续时间</t>
   </si>
 </sst>
 </file>
@@ -517,9 +580,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -551,22 +614,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -574,27 +621,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,14 +644,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,22 +675,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,11 +699,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -695,187 +758,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,6 +963,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,212 +1064,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1489,10 +1552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1807,26 +1870,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
+    <row r="21" spans="7:10">
+      <c r="G21" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
         <v>56</v>
       </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10">
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="7:10">
@@ -1878,7 +1941,7 @@
         <v>67</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s">
         <v>68</v>
@@ -1922,40 +1985,40 @@
         <v>75</v>
       </c>
       <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
         <v>76</v>
-      </c>
-      <c r="J31" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="7:10">
       <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
         <v>78</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>79</v>
-      </c>
-      <c r="J32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="7:10">
       <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
         <v>81</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>82</v>
-      </c>
-      <c r="J33" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="7:10">
       <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" t="s">
         <v>84</v>
-      </c>
-      <c r="H34" t="s">
-        <v>45</v>
       </c>
       <c r="J34" t="s">
         <v>85</v>
@@ -1966,34 +2029,37 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
         <v>87</v>
       </c>
-      <c r="J35" t="s">
+    </row>
+    <row r="36" spans="7:10">
+      <c r="G36" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" t="s">
+      <c r="H36" t="s">
         <v>89</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" t="s">
         <v>90</v>
       </c>
-      <c r="H36" t="s">
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="7:8">
       <c r="G37" t="s">
         <v>92</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="7:8">
       <c r="G38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s">
         <v>35</v>
@@ -2001,15 +2067,15 @@
     </row>
     <row r="39" spans="7:8">
       <c r="G39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="7:8">
       <c r="G40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H40" t="s">
         <v>27</v>
@@ -2017,59 +2083,56 @@
     </row>
     <row r="41" spans="7:8">
       <c r="G41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="7:10">
+    <row r="42" spans="7:8">
       <c r="G42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H42" t="s">
         <v>27</v>
       </c>
-      <c r="J42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="7:8">
+    </row>
+    <row r="43" spans="7:10">
       <c r="G43" t="s">
         <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="7:8">
       <c r="G44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="7:8">
       <c r="G45" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="7:8">
       <c r="G46" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8">
       <c r="G47" t="s">
         <v>103</v>
       </c>
@@ -2077,15 +2140,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="7:10">
+    <row r="48" spans="2:8">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -2099,17 +2162,20 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="7:8">
+    <row r="50" spans="7:10">
       <c r="G50" t="s">
         <v>108</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="J50" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="7:8">
       <c r="G51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H51" t="s">
         <v>33</v>
@@ -2117,65 +2183,56 @@
     </row>
     <row r="52" spans="7:8">
       <c r="G52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="7:10">
+    <row r="53" spans="7:8">
       <c r="G53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H53" t="s">
-        <v>112</v>
-      </c>
-      <c r="J53" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="7:10">
       <c r="G54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" t="s">
         <v>114</v>
-      </c>
-      <c r="H54" t="s">
-        <v>76</v>
       </c>
       <c r="J54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="7:8">
+    <row r="55" spans="7:10">
       <c r="G55" t="s">
         <v>116</v>
       </c>
       <c r="H55" t="s">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:3">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="7:8">
+      <c r="G56" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="2:3">
+      <c r="B57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s">
-        <v>33</v>
-      </c>
-      <c r="J57" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:10">
@@ -2186,27 +2243,30 @@
         <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s">
         <v>33</v>
       </c>
       <c r="J58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
       <c r="B59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
         <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s">
         <v>33</v>
+      </c>
+      <c r="J59" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="2:8">
@@ -2223,180 +2283,192 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="7:8">
+    <row r="61" spans="2:8">
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H61" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
-      <c r="B62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="62" spans="7:8">
+      <c r="G62" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
         <v>31</v>
       </c>
-      <c r="G62" t="s">
-        <v>123</v>
-      </c>
-      <c r="H62" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="G65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
         <v>31</v>
       </c>
-      <c r="G63" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" t="s">
-        <v>33</v>
-      </c>
-      <c r="J63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
-      <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="G66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
         <v>31</v>
       </c>
-      <c r="G64" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" t="s">
-        <v>33</v>
-      </c>
-      <c r="J64" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10">
-      <c r="G65" t="s">
-        <v>84</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s">
         <v>17</v>
       </c>
-      <c r="J65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
-      <c r="G66" t="s">
-        <v>123</v>
-      </c>
-      <c r="H66" t="s">
-        <v>33</v>
-      </c>
-      <c r="J66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="7:8">
-      <c r="G67" t="s">
-        <v>137</v>
-      </c>
-      <c r="H67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="7:8">
-      <c r="G68" t="s">
-        <v>138</v>
-      </c>
-      <c r="H68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="7:8">
+      <c r="J68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
       <c r="G69" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H69" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
       <c r="G70" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H70" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="7:10">
+    <row r="71" spans="7:8">
       <c r="G71" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H71" t="s">
         <v>33</v>
       </c>
-      <c r="J71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10">
+    </row>
+    <row r="72" spans="7:8">
       <c r="G72" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H72" t="s">
         <v>27</v>
       </c>
-      <c r="J72" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="H73" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="7:8">
+    <row r="74" spans="7:10">
       <c r="G74" t="s">
         <v>144</v>
       </c>
       <c r="H74" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="7:8">
+      <c r="J74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
       <c r="G75" t="s">
         <v>145</v>
       </c>
       <c r="H75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="7:8">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
+        <v>31</v>
+      </c>
       <c r="G76" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H76" t="s">
         <v>33</v>
@@ -2404,49 +2476,34 @@
     </row>
     <row r="77" spans="7:8">
       <c r="G77" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H77" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="2:10">
-      <c r="B78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" t="s">
-        <v>31</v>
-      </c>
+    <row r="78" spans="7:8">
       <c r="G78" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H78" t="s">
         <v>33</v>
       </c>
-      <c r="J78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="7:10">
+    </row>
+    <row r="79" spans="7:8">
       <c r="G79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H79" t="s">
         <v>33</v>
       </c>
-      <c r="J79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="7:10">
+    </row>
+    <row r="80" spans="7:8">
       <c r="G80" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H80" t="s">
         <v>33</v>
-      </c>
-      <c r="J80" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="81" spans="2:10">
@@ -2457,93 +2514,93 @@
         <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="H81" t="s">
         <v>33</v>
       </c>
       <c r="J81" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="7:10">
       <c r="G82" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="H82" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J82" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="7:10">
       <c r="G83" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="H83" t="s">
         <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
       <c r="B84" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
         <v>31</v>
       </c>
       <c r="G84" t="s">
+        <v>139</v>
+      </c>
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85" t="s">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86" t="s">
         <v>125</v>
       </c>
-      <c r="H84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="7:8">
-      <c r="G85" t="s">
-        <v>144</v>
-      </c>
-      <c r="H85" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="7:8">
-      <c r="G86" t="s">
-        <v>145</v>
-      </c>
       <c r="H86" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="J86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="H87" t="s">
         <v>33</v>
       </c>
-      <c r="J87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="88" spans="7:8">
       <c r="G88" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H88" t="s">
         <v>33</v>
@@ -2551,7 +2608,7 @@
     </row>
     <row r="89" spans="7:8">
       <c r="G89" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H89" t="s">
         <v>33</v>
@@ -2568,10 +2625,148 @@
         <v>163</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J90" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
+        <v>166</v>
+      </c>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8">
+      <c r="G92" t="s">
+        <v>167</v>
+      </c>
+      <c r="H92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="J93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
+        <v>172</v>
+      </c>
+      <c r="H94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95" t="s">
+        <v>173</v>
+      </c>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="G96" t="s">
+        <v>174</v>
+      </c>
+      <c r="H96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="G97" t="s">
+        <v>175</v>
+      </c>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10">
+      <c r="G98" t="s">
+        <v>176</v>
+      </c>
+      <c r="H98" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="7:10">
+      <c r="G99" t="s">
+        <v>178</v>
+      </c>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>181</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="7:10">
+      <c r="G101" t="s">
+        <v>183</v>
+      </c>
+      <c r="H101" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="7:10">
+      <c r="G102" t="s">
+        <v>153</v>
+      </c>
+      <c r="H102" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
+++ b/Tools/Luban/Editor_Luban/Excel2JsonTemplate/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="188">
   <si>
     <t>##var</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>速度改变持续时间</t>
+  </si>
+  <si>
+    <t>audio_buffOn</t>
+  </si>
+  <si>
+    <t>被动buff启动时音效</t>
   </si>
 </sst>
 </file>
@@ -580,9 +586,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -608,82 +614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +629,76 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -714,26 +714,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -758,13 +764,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,169 +914,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,19 +976,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,22 +1031,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,23 +1054,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,10 +1078,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,133 +1090,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,10 +1558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2769,6 +2775,17 @@
         <v>185</v>
       </c>
     </row>
+    <row r="103" spans="7:10">
+      <c r="G103" t="s">
+        <v>186</v>
+      </c>
+      <c r="H103" t="s">
+        <v>35</v>
+      </c>
+      <c r="J103" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
